--- a/extracteds/Cases/Compra para vender na Sexta.xlsx
+++ b/extracteds/Cases/Compra para vender na Sexta.xlsx
@@ -65,7 +65,8 @@
   <si>
     <t xml:space="preserve">COMPRAR NO FECHAMENTO DO DIA ANTERIOR A SEXTA-FEIRA PARA VENDER NA SEXTA-FEIRA COM 0.80% DE LUCRO OU NO FECHAMENTO SE O STOP-GAIN NÃO FOR ATINGIDO.
 OBS: NUNCA COMPRAR SEXTA!
-PERÍODO DO TESTE: 15/12/2021 A 20/06/2022</t>
+PERÍODO DO TESTE: 15/12/2021 A 20/06/2022
+Alterar: caseCompraFechamentoNegativo.py</t>
   </si>
   <si>
     <t>HYPE3</t>
@@ -1117,7 +1118,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="I1" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -7820,7 +7821,7 @@
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>